--- a/biology/Botanique/Jardin_Nusch-Éluard/Jardin_Nusch-Éluard.xlsx
+++ b/biology/Botanique/Jardin_Nusch-Éluard/Jardin_Nusch-Éluard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Nusch-%C3%89luard</t>
+          <t>Jardin_Nusch-Éluard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Nusch-Éluard est un jardin public du 18e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Nusch-%C3%89luard</t>
+          <t>Jardin_Nusch-Éluard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Nusch-Éluard est situé à l'angle de l'impasse de la Chapelle et de la rue de la Chapelle.
 Ce site est desservi par la ligne 12 du métro parisien, à la station Marx Dormoy.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Nusch-%C3%89luard</t>
+          <t>Jardin_Nusch-Éluard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-En 2019, la placette existante à cet emplacement est transformée par la Mairie de Paris en jardin public. Il est composé de parterres végétaux et planté d’arbustes (cornouillers sanguins, cognassiers du Japon et sureaux)[1].</t>
+En 2019, la placette existante à cet emplacement est transformée par la Mairie de Paris en jardin public. Il est composé de parterres végétaux et planté d’arbustes (cornouillers sanguins, cognassiers du Japon et sureaux).</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Nusch-%C3%89luard</t>
+          <t>Jardin_Nusch-Éluard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis une délibération du Conseil de Paris en 2021, ce jardin, autrefois désigné sous la dénomination de « jardin de l'impasse de la Chapelle », a pris le nom de Nusch Éluard (1906-1946). Née Maria Benz, cette artiste surréaliste qui a été notamment célébrée par Picasso, Man Ray, Lee Miller, ou encore Dora Marr, habitait le quartier[2].
-Le jardin est inauguré sous cette nouvelle dénomination en 2021[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis une délibération du Conseil de Paris en 2021, ce jardin, autrefois désigné sous la dénomination de « jardin de l'impasse de la Chapelle », a pris le nom de Nusch Éluard (1906-1946). Née Maria Benz, cette artiste surréaliste qui a été notamment célébrée par Picasso, Man Ray, Lee Miller, ou encore Dora Marr, habitait le quartier.
+Le jardin est inauguré sous cette nouvelle dénomination en 2021.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_Nusch-%C3%89luard</t>
+          <t>Jardin_Nusch-Éluard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Bâtiment remarquable et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le quartier de Chapelle international
 Le parc Chapelle-Charbon
